--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/148.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/148.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2710887651588628</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.956195567008869</v>
+        <v>-1.976569078069409</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04043114766945856</v>
+        <v>0.02648914844937139</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2950105210725423</v>
+        <v>-0.2945257851063606</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2458486314170893</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.065865619309385</v>
+        <v>-2.090743378730378</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02133955883273641</v>
+        <v>-0.00287387870689345</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2957478453584512</v>
+        <v>-0.2943169982293606</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2259020698856309</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.194387812559714</v>
+        <v>-2.227557915113023</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05179616200909187</v>
+        <v>0.03087805301064294</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.311358679546447</v>
+        <v>-0.3152380273239914</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2047869088956351</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.343694520408174</v>
+        <v>-2.396873852023341</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07108485733808668</v>
+        <v>0.05218161470509176</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3404004961227119</v>
+        <v>-0.3377840899438035</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1727810659377878</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.548607889822937</v>
+        <v>-2.620001321372191</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1062384352228954</v>
+        <v>0.1019999156149875</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3217191807995351</v>
+        <v>-0.3233456743728074</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1301248489673049</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.482587435248228</v>
+        <v>-2.561828625286116</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2353957493927698</v>
+        <v>0.2259244174270451</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3843231228415183</v>
+        <v>-0.3825725251805188</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.08074927191695422</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.348965294016355</v>
+        <v>-2.439316720002012</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3283818321584722</v>
+        <v>0.3191076066850201</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.4074867858037848</v>
+        <v>-0.4081963691759664</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.0264195882960695</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.073065846469701</v>
+        <v>-2.167579139538494</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4494227389909851</v>
+        <v>0.4382066495566245</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3571122065712529</v>
+        <v>-0.3718791329627035</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.03413086718035677</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.720198503762705</v>
+        <v>-1.811495310887226</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5321753446875084</v>
+        <v>0.5294684155269636</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2726878458106392</v>
+        <v>-0.2911778948339069</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.103189152867687</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.159304969111128</v>
+        <v>-1.244184864876106</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5134838090276952</v>
+        <v>0.5135086298452406</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2231046126433798</v>
+        <v>-0.2415026786369203</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1862543212287454</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5870259794466457</v>
+        <v>-0.6739601628755314</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4178535791693572</v>
+        <v>0.4154503400117215</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1221116261471342</v>
+        <v>-0.1419419993178561</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2876477106366055</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.02489724411016027</v>
+        <v>-0.1282978499083143</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2804104920835759</v>
+        <v>0.2779707517236675</v>
       </c>
       <c r="G13" t="n">
-        <v>0.002929812454468628</v>
+        <v>-0.01890958688934369</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.4112393356821025</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5752248626479514</v>
+        <v>0.4610082205923456</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.004823042908256563</v>
+        <v>-0.01587852705261723</v>
       </c>
       <c r="G14" t="n">
-        <v>0.144944310112885</v>
+        <v>0.1192927252037101</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.5505630737407731</v>
       </c>
       <c r="E15" t="n">
-        <v>1.115092244742352</v>
+        <v>1.007877993330744</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2266861106103788</v>
+        <v>-0.2407215529082841</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2988056379809346</v>
+        <v>0.2673313812852158</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.6933105005681989</v>
       </c>
       <c r="E16" t="n">
-        <v>1.668072318741203</v>
+        <v>1.564514027749231</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6135302324409113</v>
+        <v>-0.6400067445214497</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4579041583510737</v>
+        <v>0.4367626619947158</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.8326881257934109</v>
       </c>
       <c r="E17" t="n">
-        <v>2.275504886290495</v>
+        <v>2.172564195640977</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8278740524748538</v>
+        <v>-0.846948120734485</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5941383256175826</v>
+        <v>0.5811219968871315</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.9698856019777514</v>
       </c>
       <c r="E18" t="n">
-        <v>2.754190413183457</v>
+        <v>2.638008546397488</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.137382347026134</v>
+        <v>-1.171976726492125</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7552896736035394</v>
+        <v>0.732828293773</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.106599853231741</v>
       </c>
       <c r="E19" t="n">
-        <v>3.18965559648934</v>
+        <v>3.061704282042556</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.428426873419783</v>
+        <v>-1.471022316423954</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9365239830799452</v>
+        <v>0.9170936630861323</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.235397933836048</v>
       </c>
       <c r="E20" t="n">
-        <v>3.504790916382983</v>
+        <v>3.378236867959199</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.703377289707346</v>
+        <v>-1.736159749492519</v>
       </c>
       <c r="G20" t="n">
-        <v>1.119568752189078</v>
+        <v>1.095152367964812</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.350271521355144</v>
       </c>
       <c r="E21" t="n">
-        <v>3.87382391155252</v>
+        <v>3.741804903124465</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.971088787560183</v>
+        <v>-2.002684228247448</v>
       </c>
       <c r="G21" t="n">
-        <v>1.24955829377077</v>
+        <v>1.222962057746777</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.445717432791767</v>
       </c>
       <c r="E22" t="n">
-        <v>4.228452072257152</v>
+        <v>4.086853688304645</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.250980006587381</v>
+        <v>-2.292076710226233</v>
       </c>
       <c r="G22" t="n">
-        <v>1.403440062312093</v>
+        <v>1.374989565212646</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.520308847594601</v>
       </c>
       <c r="E23" t="n">
-        <v>4.341903649113122</v>
+        <v>4.188081742543527</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.548503496384437</v>
+        <v>-2.594175990740198</v>
       </c>
       <c r="G23" t="n">
-        <v>1.542138790756055</v>
+        <v>1.520835229061607</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.571733597672806</v>
       </c>
       <c r="E24" t="n">
-        <v>4.539678843411433</v>
+        <v>4.389239868268473</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.871396781809123</v>
+        <v>-2.921857503879019</v>
       </c>
       <c r="G24" t="n">
-        <v>1.622550939362852</v>
+        <v>1.60326662417813</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.600328871073874</v>
       </c>
       <c r="E25" t="n">
-        <v>4.562871707335517</v>
+        <v>4.412315928345285</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.09890731552688</v>
+        <v>-3.155222100417274</v>
       </c>
       <c r="G25" t="n">
-        <v>1.710729083765192</v>
+        <v>1.687439856667107</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.60851664358467</v>
       </c>
       <c r="E26" t="n">
-        <v>4.614989583988594</v>
+        <v>4.454867569906728</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.243167367149114</v>
+        <v>-3.30484271860528</v>
       </c>
       <c r="G26" t="n">
-        <v>1.833117614985614</v>
+        <v>1.808489523788166</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.600379956708669</v>
       </c>
       <c r="E27" t="n">
-        <v>4.608153638826959</v>
+        <v>4.458622813596545</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.382187306173077</v>
+        <v>-3.451789258714785</v>
       </c>
       <c r="G27" t="n">
-        <v>1.878977725521056</v>
+        <v>1.848924095617791</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.579824717169023</v>
       </c>
       <c r="E28" t="n">
-        <v>4.558431701091064</v>
+        <v>4.419042369900101</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.456467982822102</v>
+        <v>-3.535988772069399</v>
       </c>
       <c r="G28" t="n">
-        <v>1.86245144118006</v>
+        <v>1.841153719677975</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.547188354423803</v>
       </c>
       <c r="E29" t="n">
-        <v>4.459729530049453</v>
+        <v>4.32912822831767</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.51363178567736</v>
+        <v>-3.581545922625978</v>
       </c>
       <c r="G29" t="n">
-        <v>1.901263899580686</v>
+        <v>1.879179212157601</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.502842472978253</v>
       </c>
       <c r="E30" t="n">
-        <v>4.413286860325739</v>
+        <v>4.294250599522043</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.625600683697011</v>
+        <v>-3.693347645139221</v>
       </c>
       <c r="G30" t="n">
-        <v>1.927876196133679</v>
+        <v>1.898320442629414</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.446707857992414</v>
       </c>
       <c r="E31" t="n">
-        <v>4.226705854740425</v>
+        <v>4.136079209689631</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.57304990278498</v>
+        <v>-3.630767063866692</v>
       </c>
       <c r="G31" t="n">
-        <v>1.912945744356047</v>
+        <v>1.895391586159051</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.38216449058419</v>
       </c>
       <c r="E32" t="n">
-        <v>4.112769541918274</v>
+        <v>4.04132646873393</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.497187994053501</v>
+        <v>-3.551560914982986</v>
       </c>
       <c r="G32" t="n">
-        <v>1.82220229545798</v>
+        <v>1.80054248202935</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.310980353956374</v>
       </c>
       <c r="E33" t="n">
-        <v>3.889371963672607</v>
+        <v>3.845049283776892</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.503447950243272</v>
+        <v>-3.561384848562665</v>
       </c>
       <c r="G33" t="n">
-        <v>1.784067299371536</v>
+        <v>1.768382002730904</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.237318672904438</v>
       </c>
       <c r="E34" t="n">
-        <v>3.724005456848197</v>
+        <v>3.691459524853751</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.463853636089964</v>
+        <v>-3.521056860243676</v>
       </c>
       <c r="G34" t="n">
-        <v>1.686181295212744</v>
+        <v>1.67124792333893</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.163489547259453</v>
       </c>
       <c r="E35" t="n">
-        <v>3.628359166460859</v>
+        <v>3.601717668946048</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.37399789643117</v>
+        <v>-3.426745053811429</v>
       </c>
       <c r="G35" t="n">
-        <v>1.622333392197306</v>
+        <v>1.610889535260764</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.092423321694147</v>
       </c>
       <c r="E36" t="n">
-        <v>3.422067511648278</v>
+        <v>3.407443669969736</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.288901183524693</v>
+        <v>-3.323296266426274</v>
       </c>
       <c r="G36" t="n">
-        <v>1.525359918095333</v>
+        <v>1.51444605861579</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.026577186291904</v>
       </c>
       <c r="E37" t="n">
-        <v>3.249968723076688</v>
+        <v>3.246892401749143</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.209164307159941</v>
+        <v>-3.242496475051342</v>
       </c>
       <c r="G37" t="n">
-        <v>1.40084847695073</v>
+        <v>1.39440674477364</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.9657383725409894</v>
       </c>
       <c r="E38" t="n">
-        <v>3.127131957092357</v>
+        <v>3.116653191943905</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.088610326365747</v>
+        <v>-3.117187117625057</v>
       </c>
       <c r="G38" t="n">
-        <v>1.341912175713109</v>
+        <v>1.328586316787385</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.9102281265284988</v>
       </c>
       <c r="E39" t="n">
-        <v>2.803189627114353</v>
+        <v>2.820534998434348</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.95453265012951</v>
+        <v>-2.983616078076366</v>
       </c>
       <c r="G39" t="n">
-        <v>1.209071160209872</v>
+        <v>1.202406040674874</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.8566094071752126</v>
       </c>
       <c r="E40" t="n">
-        <v>2.55079695383133</v>
+        <v>2.574604498001687</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.848201727812902</v>
+        <v>-2.87464465878735</v>
       </c>
       <c r="G40" t="n">
-        <v>1.185469482820333</v>
+        <v>1.179303699732426</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.80413714324463</v>
       </c>
       <c r="E41" t="n">
-        <v>2.375072865850013</v>
+        <v>2.390067559743646</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.762143573238562</v>
+        <v>-2.783733304358829</v>
       </c>
       <c r="G41" t="n">
-        <v>1.063905878771275</v>
+        <v>1.054906142338913</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.7501104692204886</v>
       </c>
       <c r="E42" t="n">
-        <v>2.144564853401621</v>
+        <v>2.158925886423799</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.66020082545918</v>
+        <v>-2.668449367148769</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9702262731623907</v>
+        <v>0.9673996200583914</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.6938068959113313</v>
       </c>
       <c r="E43" t="n">
-        <v>2.029885376101197</v>
+        <v>2.042596554780648</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.586011401815836</v>
+        <v>-2.596069673114106</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8646720964301463</v>
+        <v>0.8598013759988749</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.6341445131731941</v>
       </c>
       <c r="E44" t="n">
-        <v>1.822380421325071</v>
+        <v>1.832784724020886</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.575315819525885</v>
+        <v>-2.589892939665517</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7901848229762573</v>
+        <v>0.7834379407481681</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5709172992161404</v>
       </c>
       <c r="E45" t="n">
-        <v>1.583249364851772</v>
+        <v>1.587152073398771</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.465653797489868</v>
+        <v>-2.479004477233138</v>
       </c>
       <c r="G45" t="n">
-        <v>0.687185730403103</v>
+        <v>0.6765478200127423</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.5056723771930617</v>
       </c>
       <c r="E46" t="n">
-        <v>1.386814494700915</v>
+        <v>1.386964879654279</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.421374189012835</v>
+        <v>-2.44247918416692</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6643374378284729</v>
+        <v>0.652324162136476</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.4396223890151695</v>
       </c>
       <c r="E47" t="n">
-        <v>1.105264661042445</v>
+        <v>1.110586536333808</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.358794337764352</v>
+        <v>-2.374937359481484</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5538409983085025</v>
+        <v>0.5473204235345043</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3759203626198289</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9478072347264876</v>
+        <v>0.9469151453429424</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.306574987768957</v>
+        <v>-2.321087865792589</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4659475632838898</v>
+        <v>0.4625631718091634</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.316176972483056</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7223933300672755</v>
+        <v>0.7242154700847295</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.245561038097973</v>
+        <v>-2.264762860565559</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3917070379573642</v>
+        <v>0.3925786866676367</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2619669888398774</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5979227702692179</v>
+        <v>0.5875199276214935</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.195745657284259</v>
+        <v>-2.212128856912346</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3176519387383841</v>
+        <v>0.3147522832298394</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2131217426326457</v>
       </c>
       <c r="E51" t="n">
-        <v>0.429738370629354</v>
+        <v>0.3999650699595438</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.150298740358544</v>
+        <v>-2.176681079337219</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2612984625735811</v>
+        <v>0.2625964453263989</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1684464849698418</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3103808992456588</v>
+        <v>0.2692382040919425</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.072128495595338</v>
+        <v>-2.100400136803648</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2278589811474991</v>
+        <v>0.2193629613065014</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1266939942912657</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1755060367517859</v>
+        <v>0.1343837822713424</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.021423945494261</v>
+        <v>-2.045200828654709</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1312592793567978</v>
+        <v>0.1290925679898893</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.08643432853787944</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1363548471940692</v>
+        <v>0.08269515975699267</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.972711631013228</v>
+        <v>-1.994328373023177</v>
       </c>
       <c r="G54" t="n">
-        <v>0.06720550956054228</v>
+        <v>0.05736332537972674</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.04697433566523731</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.05539326858497026</v>
+        <v>-0.117492033987499</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.960208509186731</v>
+        <v>-1.98096455284709</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02402896741619023</v>
+        <v>0.01052498262337568</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.007231257247681111</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.1756238487270289</v>
+        <v>-0.2374992267716486</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.848933864034307</v>
+        <v>-1.860141923204167</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.002354101586529953</v>
+        <v>-0.02346493693297883</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.03310270791113449</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.3324563744600777</v>
+        <v>-0.3954793503041517</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.768870666921238</v>
+        <v>-1.788963848748323</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.05324261774706174</v>
+        <v>-0.07152972008569319</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.07351442181964291</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3724062103235215</v>
+        <v>-0.4488265874497737</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.757600555707513</v>
+        <v>-1.779472076109325</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1375881359107664</v>
+        <v>-0.1495868111218541</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.113388285722918</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.6112627777557301</v>
+        <v>-0.6920136575196175</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.713456001678889</v>
+        <v>-1.729874242461157</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1586814506801243</v>
+        <v>-0.1731461471167568</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1522254369461054</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.6345505448057238</v>
+        <v>-0.7182974432521559</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.640307592324363</v>
+        <v>-1.650833079011724</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2000343927589314</v>
+        <v>-0.2070645243166568</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1891466684617438</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.7811057920268663</v>
+        <v>-0.8872688088130196</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.647220920034816</v>
+        <v>-1.660453335882721</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2461076703156463</v>
+        <v>-0.2574128226835524</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.223584474135348</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.9529651327115474</v>
+        <v>-1.059342776567064</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.58440381097156</v>
+        <v>-1.598138483362738</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3019282289272677</v>
+        <v>-0.3086736511072659</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2549790138379131</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.031450017838345</v>
+        <v>-1.144870933684405</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.619307720632823</v>
+        <v>-1.634482000441637</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3607535665099792</v>
+        <v>-0.3662316669470686</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2830008363706117</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.236805781824653</v>
+        <v>-1.357309390959712</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.585675512858741</v>
+        <v>-1.600461419875373</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.4054514787650581</v>
+        <v>-0.4187510568251454</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3078611873276002</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.412532789902151</v>
+        <v>-1.535208950596482</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.529323496742029</v>
+        <v>-1.538605022455936</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.4629992742682245</v>
+        <v>-0.4705126817440406</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.3298932096005312</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.540275317471935</v>
+        <v>-1.6702371181399</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.562783418841384</v>
+        <v>-1.563590825435656</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.4637497389869515</v>
+        <v>-0.4799475125074926</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.3493326647773355</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.682083948349534</v>
+        <v>-1.815644767561589</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.527105683691939</v>
+        <v>-1.525582853533121</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5151667925563923</v>
+        <v>-0.5324654423374785</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3662169902230303</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.833793895355629</v>
+        <v>-1.971093167704456</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.556207362239931</v>
+        <v>-1.534459945925846</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.5265756083387528</v>
+        <v>-0.5447634274072025</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.3795821699256178</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.934372958218102</v>
+        <v>-2.077943867141427</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.570863324976473</v>
+        <v>-1.542738418601298</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.5330319409967511</v>
+        <v>-0.5564715530481994</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.3894115578840795</v>
       </c>
       <c r="E70" t="n">
-        <v>-2.06246808740184</v>
+        <v>-2.2127946388418</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.577722630907561</v>
+        <v>-1.542074096719935</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6158020672703652</v>
+        <v>-0.6404038776021768</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3950703028247259</v>
       </c>
       <c r="E71" t="n">
-        <v>-2.140283540478956</v>
+        <v>-2.29066557374637</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.589493538616467</v>
+        <v>-1.547315669366297</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.6598823791829898</v>
+        <v>-0.6935058266685262</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3966314854612751</v>
       </c>
       <c r="E72" t="n">
-        <v>-2.225967922742024</v>
+        <v>-2.372081505415666</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.588448144183377</v>
+        <v>-1.551717714360387</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6650378089919884</v>
+        <v>-0.6835950202274379</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.394053214308704</v>
       </c>
       <c r="E73" t="n">
-        <v>-2.210711880240119</v>
+        <v>-2.356130480022489</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.579337444096107</v>
+        <v>-1.551701653831387</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7173323514640653</v>
+        <v>-0.7416771933318769</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3870924838113884</v>
       </c>
       <c r="E74" t="n">
-        <v>-2.253505159760608</v>
+        <v>-2.39528896982066</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.566363456760292</v>
+        <v>-1.531861060324028</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7154678700519749</v>
+        <v>-0.7337856334005154</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3756079087490776</v>
       </c>
       <c r="E75" t="n">
-        <v>-2.149981909922817</v>
+        <v>-2.293166636126097</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.51687220662276</v>
+        <v>-1.479423433139042</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7372079861256053</v>
+        <v>-0.7526421544946013</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3598300492804862</v>
       </c>
       <c r="E76" t="n">
-        <v>-2.126078732602505</v>
+        <v>-2.258533565385697</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.3996288848747</v>
+        <v>-1.356402701095257</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7386797146012414</v>
+        <v>-0.7570777805947818</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3394939521504169</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.974180439392682</v>
+        <v>-2.099813927495148</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.413394218275787</v>
+        <v>-1.369280325257072</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.6994336219176155</v>
+        <v>-0.7174433151189743</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3143194998369591</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.822590216330041</v>
+        <v>-1.940321194140464</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.376196573063706</v>
+        <v>-1.328816552465628</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.7093356680701582</v>
+        <v>-0.729027336672244</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2849572531467415</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.652059519408087</v>
+        <v>-1.752696254170151</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.321222842344812</v>
+        <v>-1.258938650834738</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6802369096183479</v>
+        <v>-0.6969836612210707</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2516130575363179</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.453050584472959</v>
+        <v>-1.557448403117203</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.309304469778724</v>
+        <v>-1.251363921339104</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6105955357781848</v>
+        <v>-0.6282679578705437</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2148955102897933</v>
       </c>
       <c r="E81" t="n">
-        <v>-1.291220314124729</v>
+        <v>-1.384533447662795</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.196547875814028</v>
+        <v>-1.142772844577769</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.552703168925564</v>
+        <v>-0.5718663001187406</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1756883106664376</v>
       </c>
       <c r="E82" t="n">
-        <v>-1.071115144324061</v>
+        <v>-1.166733693797672</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.167339613755399</v>
+        <v>-1.120629755231048</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.5120452097380295</v>
+        <v>-0.5312842634319334</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1342345563321323</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.7985358461361344</v>
+        <v>-0.8870147604452014</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.081547187933604</v>
+        <v>-1.030239637970981</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.482117143970583</v>
+        <v>-0.5024337131555775</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.09136935729453022</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.4832881025394917</v>
+        <v>-0.5585200005197443</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.01735179347253</v>
+        <v>-0.9542660355605471</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.4262119025696889</v>
+        <v>-0.4441077120199568</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.04757109135076373</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.2511798773834631</v>
+        <v>-0.31372541750181</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.9592973612818184</v>
+        <v>-0.9001639535519252</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3862737470909723</v>
+        <v>-0.3893106471200624</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.003855304748381251</v>
       </c>
       <c r="E86" t="n">
-        <v>0.02094242575200925</v>
+        <v>-0.03365315251133973</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9053193833609239</v>
+        <v>-0.8363379512578515</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2950937438137241</v>
+        <v>-0.3073377071040844</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.03849900988296583</v>
       </c>
       <c r="E87" t="n">
-        <v>0.2761865729565771</v>
+        <v>0.2238438488975002</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8035744720978603</v>
+        <v>-0.7372561677126054</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2294470615502872</v>
+        <v>-0.2397301802545571</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.07820604567368629</v>
       </c>
       <c r="E88" t="n">
-        <v>0.4837601499929759</v>
+        <v>0.4291587315372632</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6742039909067132</v>
+        <v>-0.6221722570909999</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1974763885036594</v>
+        <v>-0.2079040519689293</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1139932950925738</v>
       </c>
       <c r="E89" t="n">
-        <v>0.7690126656099902</v>
+        <v>0.7125088044918235</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5207062150132998</v>
+        <v>-0.4689139290844956</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1197346678551348</v>
+        <v>-0.1324881879292223</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1454482216005664</v>
       </c>
       <c r="E90" t="n">
-        <v>1.020578951673559</v>
+        <v>0.9608396239859387</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.3844443068330637</v>
+        <v>-0.336192637524713</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.06539021786342211</v>
+        <v>-0.07625151561169193</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1711966501676295</v>
       </c>
       <c r="E91" t="n">
-        <v>1.20084086912142</v>
+        <v>1.140775950709527</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2056424374761117</v>
+        <v>-0.1554532843511252</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.03819974226642942</v>
+        <v>-0.04384574823397336</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1896388281374158</v>
       </c>
       <c r="E92" t="n">
-        <v>1.325740683058204</v>
+        <v>1.280613516664398</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.0583542461133331</v>
+        <v>-0.004084258574256761</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.03943786304752</v>
+        <v>-0.04396693222551878</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.2011748342423344</v>
       </c>
       <c r="E93" t="n">
-        <v>1.433441130484085</v>
+        <v>1.394894400836004</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1057551593048047</v>
+        <v>0.1477490624955206</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.03864213683797475</v>
+        <v>-0.04426770213224597</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.2066967439919784</v>
       </c>
       <c r="E94" t="n">
-        <v>1.444204605010263</v>
+        <v>1.429532581744722</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2424959632588588</v>
+        <v>0.2791402502444854</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.06006834257205991</v>
+        <v>-0.07276638081869287</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.2086310841471574</v>
       </c>
       <c r="E95" t="n">
-        <v>1.488254255912979</v>
+        <v>1.480191870354981</v>
       </c>
       <c r="F95" t="n">
-        <v>0.4071339060859056</v>
+        <v>0.4323576969044442</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.081751516770145</v>
+        <v>-0.08994238656014279</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.2074640558995448</v>
       </c>
       <c r="E96" t="n">
-        <v>1.430880206132631</v>
+        <v>1.440189472760264</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4493322160093488</v>
+        <v>0.4704167704901613</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1189345615013168</v>
+        <v>-0.1272393150424055</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.2046995737006816</v>
       </c>
       <c r="E97" t="n">
-        <v>1.36014963641665</v>
+        <v>1.366157734310739</v>
       </c>
       <c r="F97" t="n">
-        <v>0.5265410191046916</v>
+        <v>0.5396040693740518</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1554372238221252</v>
+        <v>-0.1662722407047587</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.200692673624854</v>
       </c>
       <c r="E98" t="n">
-        <v>1.268049802842129</v>
+        <v>1.274885748003763</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5512523330433214</v>
+        <v>0.5626509284890456</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1942701228960239</v>
+        <v>-0.1989408167388408</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.1970562999848474</v>
       </c>
       <c r="E99" t="n">
-        <v>1.208009705247781</v>
+        <v>1.230005329737321</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5738494973463153</v>
+        <v>0.5763885209764056</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2162204858947452</v>
+        <v>-0.2120243076814737</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.190449058486249</v>
       </c>
       <c r="E100" t="n">
-        <v>1.110036098203535</v>
+        <v>1.120269575272714</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5471977794948679</v>
+        <v>0.5450821698111412</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.2324606008099227</v>
+        <v>-0.228698056879651</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.181597817728035</v>
       </c>
       <c r="E101" t="n">
-        <v>1.022969050398377</v>
+        <v>1.039571257240099</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5319461171372357</v>
+        <v>0.5271410988700551</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.2238083558231978</v>
+        <v>-0.220015150883017</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.1602085332080658</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9550899546039402</v>
+        <v>0.9667119374075734</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4729207529660697</v>
+        <v>0.4755897208762508</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2511433761811904</v>
+        <v>-0.248464187934373</v>
       </c>
     </row>
   </sheetData>
